--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il15-Il2ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il15-Il2ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.223902</v>
+        <v>5.826810500000001</v>
       </c>
       <c r="H2">
-        <v>12.447804</v>
+        <v>11.653621</v>
       </c>
       <c r="I2">
-        <v>0.1573600023520094</v>
+        <v>0.1134274660080535</v>
       </c>
       <c r="J2">
-        <v>0.111347698879666</v>
+        <v>0.07931918187913621</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0753475</v>
+        <v>0.2938745</v>
       </c>
       <c r="N2">
-        <v>0.150695</v>
+        <v>0.587749</v>
       </c>
       <c r="O2">
-        <v>0.03832198229806438</v>
+        <v>0.1695685954099412</v>
       </c>
       <c r="P2">
-        <v>0.02965805314694783</v>
+        <v>0.1597485223746159</v>
       </c>
       <c r="Q2">
-        <v>0.468955455945</v>
+        <v>1.71235102228225</v>
       </c>
       <c r="R2">
-        <v>1.87582182378</v>
+        <v>6.849404089129</v>
       </c>
       <c r="S2">
-        <v>0.006030347224557076</v>
+        <v>0.01923373609189449</v>
       </c>
       <c r="T2">
-        <v>0.003302355971163478</v>
+        <v>0.01267112210115542</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.223902</v>
+        <v>5.826810500000001</v>
       </c>
       <c r="H3">
-        <v>12.447804</v>
+        <v>11.653621</v>
       </c>
       <c r="I3">
-        <v>0.1573600023520094</v>
+        <v>0.1134274660080535</v>
       </c>
       <c r="J3">
-        <v>0.111347698879666</v>
+        <v>0.07931918187913621</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>0.5075730000000001</v>
       </c>
       <c r="O3">
-        <v>0.08605109004269301</v>
+        <v>0.09762493930573551</v>
       </c>
       <c r="P3">
-        <v>0.09989466810415577</v>
+        <v>0.1379569114490215</v>
       </c>
       <c r="Q3">
-        <v>1.053028203282</v>
+        <v>0.9858438953055001</v>
       </c>
       <c r="R3">
-        <v>6.318169219692001</v>
+        <v>5.915063371833001</v>
       </c>
       <c r="S3">
-        <v>0.01354099973151115</v>
+        <v>0.0110733494846396</v>
       </c>
       <c r="T3">
-        <v>0.01112304142374571</v>
+        <v>0.01094262935070882</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.223902</v>
+        <v>5.826810500000001</v>
       </c>
       <c r="H4">
-        <v>12.447804</v>
+        <v>11.653621</v>
       </c>
       <c r="I4">
-        <v>0.1573600023520094</v>
+        <v>0.1134274660080535</v>
       </c>
       <c r="J4">
-        <v>0.111347698879666</v>
+        <v>0.07931918187913621</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.03499966666666667</v>
+        <v>1.226126</v>
       </c>
       <c r="N4">
-        <v>0.104999</v>
+        <v>2.452252</v>
       </c>
       <c r="O4">
-        <v>0.01780094371330375</v>
+        <v>0.7074872560076142</v>
       </c>
       <c r="P4">
-        <v>0.02066469307127891</v>
+        <v>0.6665151850368041</v>
       </c>
       <c r="Q4">
-        <v>0.217834495366</v>
+        <v>7.144403851123001</v>
       </c>
       <c r="R4">
-        <v>1.307006972196</v>
+        <v>28.577615404492</v>
       </c>
       <c r="S4">
-        <v>0.002801156544593465</v>
+        <v>0.0802484866819347</v>
       </c>
       <c r="T4">
-        <v>0.002300966021541485</v>
+        <v>0.05286743918714039</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,113 +729,113 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.223902</v>
+        <v>5.826810500000001</v>
       </c>
       <c r="H5">
-        <v>12.447804</v>
+        <v>11.653621</v>
       </c>
       <c r="I5">
-        <v>0.1573600023520094</v>
+        <v>0.1134274660080535</v>
       </c>
       <c r="J5">
-        <v>0.111347698879666</v>
+        <v>0.07931918187913621</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.742078</v>
+        <v>0.04388</v>
       </c>
       <c r="N5">
-        <v>1.484156</v>
+        <v>0.13164</v>
       </c>
       <c r="O5">
-        <v>0.377423271903952</v>
+        <v>0.02531920927670901</v>
       </c>
       <c r="P5">
-        <v>0.2920944790892963</v>
+        <v>0.03577938113955861</v>
       </c>
       <c r="Q5">
-        <v>4.618620748356</v>
+        <v>0.25568044474</v>
       </c>
       <c r="R5">
-        <v>18.474482993424</v>
+        <v>1.53408266844</v>
       </c>
       <c r="S5">
-        <v>0.05939132695450899</v>
+        <v>0.002871893749584704</v>
       </c>
       <c r="T5">
-        <v>0.03252404810204786</v>
+        <v>0.002837991240131585</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.223902</v>
+        <v>0.8282930000000001</v>
       </c>
       <c r="H6">
-        <v>12.447804</v>
+        <v>2.484879</v>
       </c>
       <c r="I6">
-        <v>0.1573600023520094</v>
+        <v>0.01612394569931674</v>
       </c>
       <c r="J6">
-        <v>0.111347698879666</v>
+        <v>0.01691307528781364</v>
       </c>
       <c r="K6">
         <v>2</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3445373333333333</v>
+        <v>0.2938745</v>
       </c>
       <c r="N6">
-        <v>1.033612</v>
+        <v>0.587749</v>
       </c>
       <c r="O6">
-        <v>0.1752328025352176</v>
+        <v>0.1695685954099412</v>
       </c>
       <c r="P6">
-        <v>0.2034236015084976</v>
+        <v>0.1597485223746159</v>
       </c>
       <c r="Q6">
-        <v>2.144366598008</v>
+        <v>0.2434141912285</v>
       </c>
       <c r="R6">
-        <v>12.866199588048</v>
+        <v>1.460485147371</v>
       </c>
       <c r="S6">
-        <v>0.02757463421909105</v>
+        <v>0.002734114824699303</v>
       </c>
       <c r="T6">
-        <v>0.02265074992578536</v>
+        <v>0.002701838786038861</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,25 +844,25 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.223902</v>
+        <v>0.8282930000000001</v>
       </c>
       <c r="H7">
-        <v>12.447804</v>
+        <v>2.484879</v>
       </c>
       <c r="I7">
-        <v>0.1573600023520094</v>
+        <v>0.01612394569931674</v>
       </c>
       <c r="J7">
-        <v>0.111347698879666</v>
+        <v>0.01691307528781364</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6000156666666667</v>
+        <v>0.169191</v>
       </c>
       <c r="N7">
-        <v>1.800047</v>
+        <v>0.5075730000000001</v>
       </c>
       <c r="O7">
-        <v>0.3051699095067694</v>
+        <v>0.09762493930573551</v>
       </c>
       <c r="P7">
-        <v>0.3542645050798235</v>
+        <v>0.1379569114490215</v>
       </c>
       <c r="Q7">
-        <v>3.734438707798</v>
+        <v>0.140139720963</v>
       </c>
       <c r="R7">
-        <v>22.406632246788</v>
+        <v>1.261257488667</v>
       </c>
       <c r="S7">
-        <v>0.04802153767774774</v>
+        <v>0.001574099220264772</v>
       </c>
       <c r="T7">
-        <v>0.0394465374353821</v>
+        <v>0.00233327562981154</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>2.484879</v>
       </c>
       <c r="I8">
-        <v>0.02094187672430462</v>
+        <v>0.01612394569931674</v>
       </c>
       <c r="J8">
-        <v>0.02222766028806411</v>
+        <v>0.01691307528781364</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0753475</v>
+        <v>1.226126</v>
       </c>
       <c r="N8">
-        <v>0.150695</v>
+        <v>2.452252</v>
       </c>
       <c r="O8">
-        <v>0.03832198229806438</v>
+        <v>0.7074872560076142</v>
       </c>
       <c r="P8">
-        <v>0.02965805314694783</v>
+        <v>0.6665151850368041</v>
       </c>
       <c r="Q8">
-        <v>0.0624098068175</v>
+        <v>1.015591582918</v>
       </c>
       <c r="R8">
-        <v>0.374458840905</v>
+        <v>6.093549497508001</v>
       </c>
       <c r="S8">
-        <v>0.0008025342291170482</v>
+        <v>0.01140748609882537</v>
       </c>
       <c r="T8">
-        <v>0.0006592291301557072</v>
+        <v>0.01127282150499851</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>2.484879</v>
       </c>
       <c r="I9">
-        <v>0.02094187672430462</v>
+        <v>0.01612394569931674</v>
       </c>
       <c r="J9">
-        <v>0.02222766028806411</v>
+        <v>0.01691307528781364</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.169191</v>
+        <v>0.04388</v>
       </c>
       <c r="N9">
-        <v>0.5075730000000001</v>
+        <v>0.13164</v>
       </c>
       <c r="O9">
-        <v>0.08605109004269301</v>
+        <v>0.02531920927670901</v>
       </c>
       <c r="P9">
-        <v>0.09989466810415577</v>
+        <v>0.03577938113955861</v>
       </c>
       <c r="Q9">
-        <v>0.140139720963</v>
+        <v>0.03634549684000001</v>
       </c>
       <c r="R9">
-        <v>1.261257488667</v>
+        <v>0.32710947156</v>
       </c>
       <c r="S9">
-        <v>0.001802071319666114</v>
+        <v>0.0004082455555272929</v>
       </c>
       <c r="T9">
-        <v>0.002220424747208088</v>
+        <v>0.0006051393669647344</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,61 +1039,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8282930000000001</v>
+        <v>10.71614333333333</v>
       </c>
       <c r="H10">
-        <v>2.484879</v>
+        <v>32.14843</v>
       </c>
       <c r="I10">
-        <v>0.02094187672430462</v>
+        <v>0.2086055456375484</v>
       </c>
       <c r="J10">
-        <v>0.02222766028806411</v>
+        <v>0.2188150074812523</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.03499966666666667</v>
+        <v>0.2938745</v>
       </c>
       <c r="N10">
-        <v>0.104999</v>
+        <v>0.587749</v>
       </c>
       <c r="O10">
-        <v>0.01780094371330375</v>
+        <v>0.1695685954099412</v>
       </c>
       <c r="P10">
-        <v>0.02066469307127891</v>
+        <v>0.1597485223746159</v>
       </c>
       <c r="Q10">
-        <v>0.02898997890233333</v>
+        <v>3.149201264011667</v>
       </c>
       <c r="R10">
-        <v>0.260909810121</v>
+        <v>18.89520758407</v>
       </c>
       <c r="S10">
-        <v>0.0003727851688202924</v>
+        <v>0.03537294936848347</v>
       </c>
       <c r="T10">
-        <v>0.0004593277775454998</v>
+        <v>0.03495537411852057</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8282930000000001</v>
+        <v>10.71614333333333</v>
       </c>
       <c r="H11">
-        <v>2.484879</v>
+        <v>32.14843</v>
       </c>
       <c r="I11">
-        <v>0.02094187672430462</v>
+        <v>0.2086055456375484</v>
       </c>
       <c r="J11">
-        <v>0.02222766028806411</v>
+        <v>0.2188150074812523</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.742078</v>
+        <v>0.169191</v>
       </c>
       <c r="N11">
-        <v>1.484156</v>
+        <v>0.5075730000000001</v>
       </c>
       <c r="O11">
-        <v>0.377423271903952</v>
+        <v>0.09762493930573551</v>
       </c>
       <c r="P11">
-        <v>0.2920944790892963</v>
+        <v>0.1379569114490215</v>
       </c>
       <c r="Q11">
-        <v>0.614658012854</v>
+        <v>1.81307500671</v>
       </c>
       <c r="R11">
-        <v>3.687948077124001</v>
+        <v>16.31767506039001</v>
       </c>
       <c r="S11">
-        <v>0.007903951633096267</v>
+        <v>0.0203651037317055</v>
       </c>
       <c r="T11">
-        <v>0.006492576853215924</v>
+        <v>0.0301870426108081</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8282930000000001</v>
+        <v>10.71614333333333</v>
       </c>
       <c r="H12">
-        <v>2.484879</v>
+        <v>32.14843</v>
       </c>
       <c r="I12">
-        <v>0.02094187672430462</v>
+        <v>0.2086055456375484</v>
       </c>
       <c r="J12">
-        <v>0.02222766028806411</v>
+        <v>0.2188150074812523</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.3445373333333333</v>
+        <v>1.226126</v>
       </c>
       <c r="N12">
-        <v>1.033612</v>
+        <v>2.452252</v>
       </c>
       <c r="O12">
-        <v>0.1752328025352176</v>
+        <v>0.7074872560076142</v>
       </c>
       <c r="P12">
-        <v>0.2034236015084976</v>
+        <v>0.6665151850368041</v>
       </c>
       <c r="Q12">
-        <v>0.2853778614386667</v>
+        <v>13.13934196072667</v>
       </c>
       <c r="R12">
-        <v>2.568400752948</v>
+        <v>78.83605176436002</v>
       </c>
       <c r="S12">
-        <v>0.003669703748746941</v>
+        <v>0.1475857650710802</v>
       </c>
       <c r="T12">
-        <v>0.004521630708905411</v>
+        <v>0.1458435252001966</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1225,51 +1225,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8282930000000001</v>
+        <v>10.71614333333333</v>
       </c>
       <c r="H13">
-        <v>2.484879</v>
+        <v>32.14843</v>
       </c>
       <c r="I13">
-        <v>0.02094187672430462</v>
+        <v>0.2086055456375484</v>
       </c>
       <c r="J13">
-        <v>0.02222766028806411</v>
+        <v>0.2188150074812523</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.6000156666666667</v>
+        <v>0.04388</v>
       </c>
       <c r="N13">
-        <v>1.800047</v>
+        <v>0.13164</v>
       </c>
       <c r="O13">
-        <v>0.3051699095067694</v>
+        <v>0.02531920927670901</v>
       </c>
       <c r="P13">
-        <v>0.3542645050798235</v>
+        <v>0.03577938113955861</v>
       </c>
       <c r="Q13">
-        <v>0.4969887765903334</v>
+        <v>0.4702243694666667</v>
       </c>
       <c r="R13">
-        <v>4.472898989313001</v>
+        <v>4.2320193252</v>
       </c>
       <c r="S13">
-        <v>0.006390830624857961</v>
+        <v>0.005281727466279159</v>
       </c>
       <c r="T13">
-        <v>0.00787447107103348</v>
+        <v>0.007829065551727096</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.755645</v>
+        <v>1.363699</v>
       </c>
       <c r="H14">
-        <v>32.266935</v>
+        <v>2.727398</v>
       </c>
       <c r="I14">
-        <v>0.2719368528774038</v>
+        <v>0.0265464136799569</v>
       </c>
       <c r="J14">
-        <v>0.288633156671631</v>
+        <v>0.01856375610797642</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.0753475</v>
+        <v>0.2938745</v>
       </c>
       <c r="N14">
-        <v>0.150695</v>
+        <v>0.587749</v>
       </c>
       <c r="O14">
-        <v>0.03832198229806438</v>
+        <v>0.1695685954099412</v>
       </c>
       <c r="P14">
-        <v>0.02965805314694783</v>
+        <v>0.1597485223746159</v>
       </c>
       <c r="Q14">
-        <v>0.8104109616375</v>
+        <v>0.4007563617754999</v>
       </c>
       <c r="R14">
-        <v>4.862465769825</v>
+        <v>1.603025447102</v>
       </c>
       <c r="S14">
-        <v>0.01042115926215921</v>
+        <v>0.004501438080881542</v>
       </c>
       <c r="T14">
-        <v>0.008560297500538553</v>
+        <v>0.002965532607971984</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.755645</v>
+        <v>1.363699</v>
       </c>
       <c r="H15">
-        <v>32.266935</v>
+        <v>2.727398</v>
       </c>
       <c r="I15">
-        <v>0.2719368528774038</v>
+        <v>0.0265464136799569</v>
       </c>
       <c r="J15">
-        <v>0.288633156671631</v>
+        <v>0.01856375610797642</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,27 +1373,27 @@
         <v>0.5075730000000001</v>
       </c>
       <c r="O15">
-        <v>0.08605109004269301</v>
+        <v>0.09762493930573551</v>
       </c>
       <c r="P15">
-        <v>0.09989466810415577</v>
+        <v>0.1379569114490215</v>
       </c>
       <c r="Q15">
-        <v>1.819758333195</v>
+        <v>0.230725597509</v>
       </c>
       <c r="R15">
-        <v>16.377824998755</v>
+        <v>1.384353585054</v>
       </c>
       <c r="S15">
-        <v>0.02340046261288004</v>
+        <v>0.00259159202429074</v>
       </c>
       <c r="T15">
-        <v>0.02883291338956738</v>
+        <v>0.002560998457549335</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.755645</v>
+        <v>1.363699</v>
       </c>
       <c r="H16">
-        <v>32.266935</v>
+        <v>2.727398</v>
       </c>
       <c r="I16">
-        <v>0.2719368528774038</v>
+        <v>0.0265464136799569</v>
       </c>
       <c r="J16">
-        <v>0.288633156671631</v>
+        <v>0.01856375610797642</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.03499966666666667</v>
+        <v>1.226126</v>
       </c>
       <c r="N16">
-        <v>0.104999</v>
+        <v>2.452252</v>
       </c>
       <c r="O16">
-        <v>0.01780094371330375</v>
+        <v>0.7074872560076142</v>
       </c>
       <c r="P16">
-        <v>0.02066469307127891</v>
+        <v>0.6665151850368041</v>
       </c>
       <c r="Q16">
-        <v>0.376443989785</v>
+        <v>1.672066800074</v>
       </c>
       <c r="R16">
-        <v>3.387995908065</v>
+        <v>6.688267200296</v>
       </c>
       <c r="S16">
-        <v>0.004840732611643626</v>
+        <v>0.0187812493712757</v>
       </c>
       <c r="T16">
-        <v>0.005964515592813614</v>
+        <v>0.01237302533728601</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.755645</v>
+        <v>1.363699</v>
       </c>
       <c r="H17">
-        <v>32.266935</v>
+        <v>2.727398</v>
       </c>
       <c r="I17">
-        <v>0.2719368528774038</v>
+        <v>0.0265464136799569</v>
       </c>
       <c r="J17">
-        <v>0.288633156671631</v>
+        <v>0.01856375610797642</v>
       </c>
       <c r="K17">
         <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.742078</v>
+        <v>0.04388</v>
       </c>
       <c r="N17">
-        <v>1.484156</v>
+        <v>0.13164</v>
       </c>
       <c r="O17">
-        <v>0.377423271903952</v>
+        <v>0.02531920927670901</v>
       </c>
       <c r="P17">
-        <v>0.2920944790892963</v>
+        <v>0.03577938113955861</v>
       </c>
       <c r="Q17">
-        <v>7.981527530310001</v>
+        <v>0.05983911212</v>
       </c>
       <c r="R17">
-        <v>47.88916518186001</v>
+        <v>0.35903467272</v>
       </c>
       <c r="S17">
-        <v>0.1026352967642534</v>
+        <v>0.0006721342035089199</v>
       </c>
       <c r="T17">
-        <v>0.08430815154589931</v>
+        <v>0.0006641997051690977</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>10.755645</v>
+        <v>26.27229866666667</v>
       </c>
       <c r="H18">
-        <v>32.266935</v>
+        <v>78.816896</v>
       </c>
       <c r="I18">
-        <v>0.2719368528774038</v>
+        <v>0.5114290680925289</v>
       </c>
       <c r="J18">
-        <v>0.288633156671631</v>
+        <v>0.5364591579709828</v>
       </c>
       <c r="K18">
         <v>2</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.3445373333333333</v>
+        <v>0.2938745</v>
       </c>
       <c r="N18">
-        <v>1.033612</v>
+        <v>0.587749</v>
       </c>
       <c r="O18">
-        <v>0.1752328025352176</v>
+        <v>0.1695685954099412</v>
       </c>
       <c r="P18">
-        <v>0.2034236015084976</v>
+        <v>0.1597485223746159</v>
       </c>
       <c r="Q18">
-        <v>3.70572124658</v>
+        <v>7.720758634517333</v>
       </c>
       <c r="R18">
-        <v>33.35149121922</v>
+        <v>46.32455180710399</v>
       </c>
       <c r="S18">
-        <v>0.04765225684231461</v>
+        <v>0.08672230872826531</v>
       </c>
       <c r="T18">
-        <v>0.05871479624490962</v>
+        <v>0.08569855780019513</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>10.755645</v>
+        <v>26.27229866666667</v>
       </c>
       <c r="H19">
-        <v>32.266935</v>
+        <v>78.816896</v>
       </c>
       <c r="I19">
-        <v>0.2719368528774038</v>
+        <v>0.5114290680925289</v>
       </c>
       <c r="J19">
-        <v>0.288633156671631</v>
+        <v>0.5364591579709828</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,95 +1615,95 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.6000156666666667</v>
+        <v>0.169191</v>
       </c>
       <c r="N19">
-        <v>1.800047</v>
+        <v>0.5075730000000001</v>
       </c>
       <c r="O19">
-        <v>0.3051699095067694</v>
+        <v>0.09762493930573551</v>
       </c>
       <c r="P19">
-        <v>0.3542645050798235</v>
+        <v>0.1379569114490215</v>
       </c>
       <c r="Q19">
-        <v>6.453555505105001</v>
+        <v>4.445036483712</v>
       </c>
       <c r="R19">
-        <v>58.08199954594501</v>
+        <v>40.005328353408</v>
       </c>
       <c r="S19">
-        <v>0.08298694478415296</v>
+        <v>0.04992823173172201</v>
       </c>
       <c r="T19">
-        <v>0.1022524823979025</v>
+        <v>0.07400824855221949</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.6398845000000001</v>
+        <v>26.27229866666667</v>
       </c>
       <c r="H20">
-        <v>1.279769</v>
+        <v>78.816896</v>
       </c>
       <c r="I20">
-        <v>0.01617831168052042</v>
+        <v>0.5114290680925289</v>
       </c>
       <c r="J20">
-        <v>0.01144774879549287</v>
+        <v>0.5364591579709828</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.0753475</v>
+        <v>1.226126</v>
       </c>
       <c r="N20">
-        <v>0.150695</v>
+        <v>2.452252</v>
       </c>
       <c r="O20">
-        <v>0.03832198229806438</v>
+        <v>0.7074872560076142</v>
       </c>
       <c r="P20">
-        <v>0.02965805314694783</v>
+        <v>0.6665151850368041</v>
       </c>
       <c r="Q20">
-        <v>0.04821369736375</v>
+        <v>32.21314847496534</v>
       </c>
       <c r="R20">
-        <v>0.192854789455</v>
+        <v>193.278890849792</v>
       </c>
       <c r="S20">
-        <v>0.0006199849738334718</v>
+        <v>0.3618295480273145</v>
       </c>
       <c r="T20">
-        <v>0.0003395179421896355</v>
+        <v>0.3575581749397177</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.6398845000000001</v>
+        <v>26.27229866666667</v>
       </c>
       <c r="H21">
-        <v>1.279769</v>
+        <v>78.816896</v>
       </c>
       <c r="I21">
-        <v>0.01617831168052042</v>
+        <v>0.5114290680925289</v>
       </c>
       <c r="J21">
-        <v>0.01144774879549287</v>
+        <v>0.5364591579709828</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.169191</v>
+        <v>0.04388</v>
       </c>
       <c r="N21">
-        <v>0.5075730000000001</v>
+        <v>0.13164</v>
       </c>
       <c r="O21">
-        <v>0.08605109004269301</v>
+        <v>0.02531920927670901</v>
       </c>
       <c r="P21">
-        <v>0.09989466810415577</v>
+        <v>0.03577938113955861</v>
       </c>
       <c r="Q21">
-        <v>0.1082626984395</v>
+        <v>1.152828465493333</v>
       </c>
       <c r="R21">
-        <v>0.6495761906370001</v>
+        <v>10.37545618944</v>
       </c>
       <c r="S21">
-        <v>0.001392161355159215</v>
+        <v>0.012948979605227</v>
       </c>
       <c r="T21">
-        <v>0.001143569066465509</v>
+        <v>0.01919417667885048</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.6398845000000001</v>
+        <v>6.363122</v>
       </c>
       <c r="H22">
-        <v>1.279769</v>
+        <v>19.089366</v>
       </c>
       <c r="I22">
-        <v>0.01617831168052042</v>
+        <v>0.1238675608825956</v>
       </c>
       <c r="J22">
-        <v>0.01144774879549287</v>
+        <v>0.1299298212728386</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.03499966666666667</v>
+        <v>0.2938745</v>
       </c>
       <c r="N22">
-        <v>0.104999</v>
+        <v>0.587749</v>
       </c>
       <c r="O22">
-        <v>0.01780094371330375</v>
+        <v>0.1695685954099412</v>
       </c>
       <c r="P22">
-        <v>0.02066469307127891</v>
+        <v>0.1597485223746159</v>
       </c>
       <c r="Q22">
-        <v>0.02239574420516667</v>
+        <v>1.869959296189</v>
       </c>
       <c r="R22">
-        <v>0.134374465231</v>
+        <v>11.219755777134</v>
       </c>
       <c r="S22">
-        <v>0.0002879892156012285</v>
+        <v>0.02100404831571712</v>
       </c>
       <c r="T22">
-        <v>0.000236564215215963</v>
+        <v>0.0207560969607339</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.6398845000000001</v>
+        <v>6.363122</v>
       </c>
       <c r="H23">
-        <v>1.279769</v>
+        <v>19.089366</v>
       </c>
       <c r="I23">
-        <v>0.01617831168052042</v>
+        <v>0.1238675608825956</v>
       </c>
       <c r="J23">
-        <v>0.01144774879549287</v>
+        <v>0.1299298212728386</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.742078</v>
+        <v>0.169191</v>
       </c>
       <c r="N23">
-        <v>1.484156</v>
+        <v>0.5075730000000001</v>
       </c>
       <c r="O23">
-        <v>0.377423271903952</v>
+        <v>0.09762493930573551</v>
       </c>
       <c r="P23">
-        <v>0.2920944790892963</v>
+        <v>0.1379569114490215</v>
       </c>
       <c r="Q23">
-        <v>0.4748442099910001</v>
+        <v>1.076582974302</v>
       </c>
       <c r="R23">
-        <v>1.899376839964</v>
+        <v>9.689246768718</v>
       </c>
       <c r="S23">
-        <v>0.006106071328343943</v>
+        <v>0.01209256311311289</v>
       </c>
       <c r="T23">
-        <v>0.003343824221164608</v>
+        <v>0.01792471684792418</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.6398845000000001</v>
+        <v>6.363122</v>
       </c>
       <c r="H24">
-        <v>1.279769</v>
+        <v>19.089366</v>
       </c>
       <c r="I24">
-        <v>0.01617831168052042</v>
+        <v>0.1238675608825956</v>
       </c>
       <c r="J24">
-        <v>0.01144774879549287</v>
+        <v>0.1299298212728386</v>
       </c>
       <c r="K24">
         <v>2</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.3445373333333333</v>
+        <v>1.226126</v>
       </c>
       <c r="N24">
-        <v>1.033612</v>
+        <v>2.452252</v>
       </c>
       <c r="O24">
-        <v>0.1752328025352176</v>
+        <v>0.7074872560076142</v>
       </c>
       <c r="P24">
-        <v>0.2034236015084976</v>
+        <v>0.6665151850368041</v>
       </c>
       <c r="Q24">
-        <v>0.2204640992713333</v>
+        <v>7.801989325372</v>
       </c>
       <c r="R24">
-        <v>1.322784595628</v>
+        <v>46.811935952232</v>
       </c>
       <c r="S24">
-        <v>0.002834970896065839</v>
+        <v>0.08763472075718365</v>
       </c>
       <c r="T24">
-        <v>0.002328742289143724</v>
+        <v>0.08660019886746489</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,796 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.6398845000000001</v>
+        <v>6.363122</v>
       </c>
       <c r="H25">
-        <v>1.279769</v>
+        <v>19.089366</v>
       </c>
       <c r="I25">
-        <v>0.01617831168052042</v>
+        <v>0.1238675608825956</v>
       </c>
       <c r="J25">
-        <v>0.01144774879549287</v>
+        <v>0.1299298212728386</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.6000156666666667</v>
+        <v>0.04388</v>
       </c>
       <c r="N25">
-        <v>1.800047</v>
+        <v>0.13164</v>
       </c>
       <c r="O25">
-        <v>0.3051699095067694</v>
+        <v>0.02531920927670901</v>
       </c>
       <c r="P25">
-        <v>0.3542645050798235</v>
+        <v>0.03577938113955861</v>
       </c>
       <c r="Q25">
-        <v>0.3839407248571667</v>
+        <v>0.27921379336</v>
       </c>
       <c r="R25">
-        <v>2.303644349143001</v>
+        <v>2.51292414024</v>
       </c>
       <c r="S25">
-        <v>0.004937133911516727</v>
+        <v>0.003136228696581933</v>
       </c>
       <c r="T25">
-        <v>0.004055531061313427</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>4.640172333333333</v>
-      </c>
-      <c r="H26">
-        <v>13.920517</v>
-      </c>
-      <c r="I26">
-        <v>0.1173182883160857</v>
-      </c>
-      <c r="J26">
-        <v>0.1245213641832143</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.5</v>
-      </c>
-      <c r="M26">
-        <v>0.0753475</v>
-      </c>
-      <c r="N26">
-        <v>0.150695</v>
-      </c>
-      <c r="O26">
-        <v>0.03832198229806438</v>
-      </c>
-      <c r="P26">
-        <v>0.02965805314694783</v>
-      </c>
-      <c r="Q26">
-        <v>0.3496253848858333</v>
-      </c>
-      <c r="R26">
-        <v>2.097752309315</v>
-      </c>
-      <c r="S26">
-        <v>0.00449586936808825</v>
-      </c>
-      <c r="T26">
-        <v>0.003693061236876215</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>4.640172333333333</v>
-      </c>
-      <c r="H27">
-        <v>13.920517</v>
-      </c>
-      <c r="I27">
-        <v>0.1173182883160857</v>
-      </c>
-      <c r="J27">
-        <v>0.1245213641832143</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>0.169191</v>
-      </c>
-      <c r="N27">
-        <v>0.5075730000000001</v>
-      </c>
-      <c r="O27">
-        <v>0.08605109004269301</v>
-      </c>
-      <c r="P27">
-        <v>0.09989466810415577</v>
-      </c>
-      <c r="Q27">
-        <v>0.785075397249</v>
-      </c>
-      <c r="R27">
-        <v>7.065678575241001</v>
-      </c>
-      <c r="S27">
-        <v>0.01009536659154211</v>
-      </c>
-      <c r="T27">
-        <v>0.0124390203469589</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>4.640172333333333</v>
-      </c>
-      <c r="H28">
-        <v>13.920517</v>
-      </c>
-      <c r="I28">
-        <v>0.1173182883160857</v>
-      </c>
-      <c r="J28">
-        <v>0.1245213641832143</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M28">
-        <v>0.03499966666666667</v>
-      </c>
-      <c r="N28">
-        <v>0.104999</v>
-      </c>
-      <c r="O28">
-        <v>0.01780094371330375</v>
-      </c>
-      <c r="P28">
-        <v>0.02066469307127891</v>
-      </c>
-      <c r="Q28">
-        <v>0.1624044849425555</v>
-      </c>
-      <c r="R28">
-        <v>1.461640364483</v>
-      </c>
-      <c r="S28">
-        <v>0.002088376246855782</v>
-      </c>
-      <c r="T28">
-        <v>0.002573195771663066</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>4.640172333333333</v>
-      </c>
-      <c r="H29">
-        <v>13.920517</v>
-      </c>
-      <c r="I29">
-        <v>0.1173182883160857</v>
-      </c>
-      <c r="J29">
-        <v>0.1245213641832143</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>0.742078</v>
-      </c>
-      <c r="N29">
-        <v>1.484156</v>
-      </c>
-      <c r="O29">
-        <v>0.377423271903952</v>
-      </c>
-      <c r="P29">
-        <v>0.2920944790892963</v>
-      </c>
-      <c r="Q29">
-        <v>3.443369804775333</v>
-      </c>
-      <c r="R29">
-        <v>20.660218828652</v>
-      </c>
-      <c r="S29">
-        <v>0.04427865223042825</v>
-      </c>
-      <c r="T29">
-        <v>0.03637200300658453</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>4.640172333333333</v>
-      </c>
-      <c r="H30">
-        <v>13.920517</v>
-      </c>
-      <c r="I30">
-        <v>0.1173182883160857</v>
-      </c>
-      <c r="J30">
-        <v>0.1245213641832143</v>
-      </c>
-      <c r="K30">
-        <v>2</v>
-      </c>
-      <c r="L30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M30">
-        <v>0.3445373333333333</v>
-      </c>
-      <c r="N30">
-        <v>1.033612</v>
-      </c>
-      <c r="O30">
-        <v>0.1752328025352176</v>
-      </c>
-      <c r="P30">
-        <v>0.2034236015084976</v>
-      </c>
-      <c r="Q30">
-        <v>1.598712601933778</v>
-      </c>
-      <c r="R30">
-        <v>14.388413417404</v>
-      </c>
-      <c r="S30">
-        <v>0.02055801245026237</v>
-      </c>
-      <c r="T30">
-        <v>0.02533058436690068</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>4.640172333333333</v>
-      </c>
-      <c r="H31">
-        <v>13.920517</v>
-      </c>
-      <c r="I31">
-        <v>0.1173182883160857</v>
-      </c>
-      <c r="J31">
-        <v>0.1245213641832143</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.6000156666666667</v>
-      </c>
-      <c r="N31">
-        <v>1.800047</v>
-      </c>
-      <c r="O31">
-        <v>0.3051699095067694</v>
-      </c>
-      <c r="P31">
-        <v>0.3542645050798235</v>
-      </c>
-      <c r="Q31">
-        <v>2.784176096033222</v>
-      </c>
-      <c r="R31">
-        <v>25.057584864299</v>
-      </c>
-      <c r="S31">
-        <v>0.03580201142890895</v>
-      </c>
-      <c r="T31">
-        <v>0.04411349945423087</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>16.464098</v>
-      </c>
-      <c r="H32">
-        <v>49.39229400000001</v>
-      </c>
-      <c r="I32">
-        <v>0.416264668049676</v>
-      </c>
-      <c r="J32">
-        <v>0.4418223711819317</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>0.5</v>
-      </c>
-      <c r="M32">
-        <v>0.0753475</v>
-      </c>
-      <c r="N32">
-        <v>0.150695</v>
-      </c>
-      <c r="O32">
-        <v>0.03832198229806438</v>
-      </c>
-      <c r="P32">
-        <v>0.02965805314694783</v>
-      </c>
-      <c r="Q32">
-        <v>1.240528624055</v>
-      </c>
-      <c r="R32">
-        <v>7.443171744330001</v>
-      </c>
-      <c r="S32">
-        <v>0.01595208724030933</v>
-      </c>
-      <c r="T32">
-        <v>0.01310359136602424</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>16.464098</v>
-      </c>
-      <c r="H33">
-        <v>49.39229400000001</v>
-      </c>
-      <c r="I33">
-        <v>0.416264668049676</v>
-      </c>
-      <c r="J33">
-        <v>0.4418223711819317</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>0.169191</v>
-      </c>
-      <c r="N33">
-        <v>0.5075730000000001</v>
-      </c>
-      <c r="O33">
-        <v>0.08605109004269301</v>
-      </c>
-      <c r="P33">
-        <v>0.09989466810415577</v>
-      </c>
-      <c r="Q33">
-        <v>2.785577204718001</v>
-      </c>
-      <c r="R33">
-        <v>25.070194842462</v>
-      </c>
-      <c r="S33">
-        <v>0.03582002843193439</v>
-      </c>
-      <c r="T33">
-        <v>0.04413569913021018</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>16.464098</v>
-      </c>
-      <c r="H34">
-        <v>49.39229400000001</v>
-      </c>
-      <c r="I34">
-        <v>0.416264668049676</v>
-      </c>
-      <c r="J34">
-        <v>0.4418223711819317</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M34">
-        <v>0.03499966666666667</v>
-      </c>
-      <c r="N34">
-        <v>0.104999</v>
-      </c>
-      <c r="O34">
-        <v>0.01780094371330375</v>
-      </c>
-      <c r="P34">
-        <v>0.02066469307127891</v>
-      </c>
-      <c r="Q34">
-        <v>0.5762379419673335</v>
-      </c>
-      <c r="R34">
-        <v>5.186141477706</v>
-      </c>
-      <c r="S34">
-        <v>0.007409903925789351</v>
-      </c>
-      <c r="T34">
-        <v>0.009130123692499282</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>16.464098</v>
-      </c>
-      <c r="H35">
-        <v>49.39229400000001</v>
-      </c>
-      <c r="I35">
-        <v>0.416264668049676</v>
-      </c>
-      <c r="J35">
-        <v>0.4418223711819317</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>0.742078</v>
-      </c>
-      <c r="N35">
-        <v>1.484156</v>
-      </c>
-      <c r="O35">
-        <v>0.377423271903952</v>
-      </c>
-      <c r="P35">
-        <v>0.2920944790892963</v>
-      </c>
-      <c r="Q35">
-        <v>12.217644915644</v>
-      </c>
-      <c r="R35">
-        <v>73.30586949386401</v>
-      </c>
-      <c r="S35">
-        <v>0.1571079729933212</v>
-      </c>
-      <c r="T35">
-        <v>0.1290538753603841</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>16.464098</v>
-      </c>
-      <c r="H36">
-        <v>49.39229400000001</v>
-      </c>
-      <c r="I36">
-        <v>0.416264668049676</v>
-      </c>
-      <c r="J36">
-        <v>0.4418223711819317</v>
-      </c>
-      <c r="K36">
-        <v>2</v>
-      </c>
-      <c r="L36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M36">
-        <v>0.3445373333333333</v>
-      </c>
-      <c r="N36">
-        <v>1.033612</v>
-      </c>
-      <c r="O36">
-        <v>0.1752328025352176</v>
-      </c>
-      <c r="P36">
-        <v>0.2034236015084976</v>
-      </c>
-      <c r="Q36">
-        <v>5.672496420658668</v>
-      </c>
-      <c r="R36">
-        <v>51.05246778592801</v>
-      </c>
-      <c r="S36">
-        <v>0.07294322437873678</v>
-      </c>
-      <c r="T36">
-        <v>0.08987709797285277</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>16.464098</v>
-      </c>
-      <c r="H37">
-        <v>49.39229400000001</v>
-      </c>
-      <c r="I37">
-        <v>0.416264668049676</v>
-      </c>
-      <c r="J37">
-        <v>0.4418223711819317</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>0.6000156666666667</v>
-      </c>
-      <c r="N37">
-        <v>1.800047</v>
-      </c>
-      <c r="O37">
-        <v>0.3051699095067694</v>
-      </c>
-      <c r="P37">
-        <v>0.3542645050798235</v>
-      </c>
-      <c r="Q37">
-        <v>9.878716737535337</v>
-      </c>
-      <c r="R37">
-        <v>88.90845063781802</v>
-      </c>
-      <c r="S37">
-        <v>0.127031451079585</v>
-      </c>
-      <c r="T37">
-        <v>0.1565219836599611</v>
+        <v>0.004648808596715622</v>
       </c>
     </row>
   </sheetData>
